--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1414886.998525983</v>
+        <v>1412191.192598186</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450591.92528422</v>
+        <v>12450563.82877701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10648788.18933861</v>
+        <v>10649627.06212542</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>133.8333590606439</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>133.833359060644</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>114.5149250787138</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>116.9337976107823</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>138.395696696718</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.2919171199299</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>379.9041928556695</v>
+        <v>12.12248909384826</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.9050829712638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0912330341336</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.56247152981742</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>109.5008735366267</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6427813325164</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.80991660847587</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.84059657531986</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0927489854604</v>
+        <v>140.0770147268831</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3095697982953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294915657976</v>
+        <v>225.8294358364283</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.33119882658735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>14.23683262282026</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5644294006316</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.150517818866</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9.99112361440214</v>
+        <v>9.99112361440169</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.50612826256146</v>
+        <v>81.8758686086374</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632823</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111894</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.4146274292355</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>41.41734097933499</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>355.9677678213155</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>86.64179915749276</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>8.282546271489991</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.8268892512994</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>88.63818461247374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>77.51532669821918</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465558</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672551</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446353055</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>120.5489677262082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9534977375317</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503568</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>32.85640693044577</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>73.78331078915251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>199.790791297769</v>
       </c>
       <c r="U22" t="n">
-        <v>20.38427178197995</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695572</v>
+        <v>83.7025149569543</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279968</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>172.0260335000788</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>228.9553704673</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>105.1820732698669</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>229.319471560892</v>
+        <v>167.3637267182086</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>14.19454216862621</v>
+        <v>206.7582264966186</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824987</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577708</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.32649042089443</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871777</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871777</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706928</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>170.3628934706928</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>163.4173927214894</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>150.1872581456732</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036626</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036626</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036626</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871777</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871777</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871777</v>
+        <v>224.5974673148103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323103</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158254</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.2476507906783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>628.6105509030299</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484196</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430764</v>
+        <v>373.5399563830977</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377331</v>
+        <v>559.1902876777546</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>721.9284911143047</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681429</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="V4" t="n">
-        <v>417.512079941155</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246701</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818521</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>746.7254979846282</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428.199839134016</v>
+        <v>366.7449022127157</v>
       </c>
       <c r="C5" t="n">
-        <v>428.199839134016</v>
+        <v>366.7449022127157</v>
       </c>
       <c r="D5" t="n">
-        <v>428.199839134016</v>
+        <v>366.7449022127157</v>
       </c>
       <c r="E5" t="n">
-        <v>428.199839134016</v>
+        <v>366.7449022127157</v>
       </c>
       <c r="F5" t="n">
-        <v>421.2543383848125</v>
+        <v>359.7994014635123</v>
       </c>
       <c r="G5" t="n">
-        <v>37.51272943969185</v>
+        <v>347.5544629848777</v>
       </c>
       <c r="H5" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="I5" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="J5" t="n">
-        <v>125.3646689521496</v>
+        <v>125.5342965407783</v>
       </c>
       <c r="K5" t="n">
-        <v>307.770471261312</v>
+        <v>308.1394738743153</v>
       </c>
       <c r="L5" t="n">
-        <v>570.962760308136</v>
+        <v>571.5791052688216</v>
       </c>
       <c r="M5" t="n">
-        <v>895.4843310418036</v>
+        <v>896.3758920220537</v>
       </c>
       <c r="N5" t="n">
-        <v>1229.870808445632</v>
+        <v>1231.042038728372</v>
       </c>
       <c r="O5" t="n">
-        <v>1532.287215726472</v>
+        <v>1533.722529801067</v>
       </c>
       <c r="P5" t="n">
-        <v>1755.891621830854</v>
+        <v>1757.552325312001</v>
       </c>
       <c r="Q5" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="R5" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="S5" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="T5" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="U5" t="n">
-        <v>1875.636471984592</v>
+        <v>1623.838925408202</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.573584641022</v>
+        <v>1292.776038064631</v>
       </c>
       <c r="W5" t="n">
-        <v>1191.804929370908</v>
+        <v>940.0073827945173</v>
       </c>
       <c r="X5" t="n">
-        <v>818.3391711098277</v>
+        <v>940.0073827945173</v>
       </c>
       <c r="Y5" t="n">
-        <v>428.199839134016</v>
+        <v>549.8680508187056</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.1618738131622</v>
+        <v>602.8626942765811</v>
       </c>
       <c r="C6" t="n">
-        <v>757.1618738131622</v>
+        <v>492.2557513102915</v>
       </c>
       <c r="D6" t="n">
-        <v>608.2274641519109</v>
+        <v>343.3213416490403</v>
       </c>
       <c r="E6" t="n">
-        <v>448.9900091464555</v>
+        <v>184.0838866435848</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4554511733405</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4425407364552</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="H6" t="n">
-        <v>68.66484719254019</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="I6" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="J6" t="n">
-        <v>185.3765506424148</v>
+        <v>185.9916966408902</v>
       </c>
       <c r="K6" t="n">
-        <v>320.7987504783379</v>
+        <v>321.5493144971344</v>
       </c>
       <c r="L6" t="n">
-        <v>549.2131514503533</v>
+        <v>550.1458017090932</v>
       </c>
       <c r="M6" t="n">
-        <v>835.118851945685</v>
+        <v>836.2639882579859</v>
       </c>
       <c r="N6" t="n">
-        <v>1143.000270509912</v>
+        <v>1144.36351674934</v>
       </c>
       <c r="O6" t="n">
-        <v>1402.431823780058</v>
+        <v>1403.994597991573</v>
       </c>
       <c r="P6" t="n">
-        <v>1591.315450925826</v>
+        <v>1593.038363925639</v>
       </c>
       <c r="Q6" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="R6" t="n">
-        <v>1875.636471984592</v>
+        <v>1877.466433523488</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.128644726551</v>
+        <v>1735.97449945593</v>
       </c>
       <c r="T6" t="n">
-        <v>1538.866453011101</v>
+        <v>1735.97449945593</v>
       </c>
       <c r="U6" t="n">
-        <v>1310.755855469892</v>
+        <v>1507.863958207012</v>
       </c>
       <c r="V6" t="n">
-        <v>1075.603747238149</v>
+        <v>1272.711849975269</v>
       </c>
       <c r="W6" t="n">
-        <v>821.3663905099475</v>
+        <v>1018.474493247068</v>
       </c>
       <c r="X6" t="n">
-        <v>821.3663905099475</v>
+        <v>810.622993041535</v>
       </c>
       <c r="Y6" t="n">
-        <v>821.3663905099475</v>
+        <v>602.8626942765811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.0846582236189</v>
+        <v>370.2935054802316</v>
       </c>
       <c r="C7" t="n">
-        <v>376.0846582236189</v>
+        <v>370.2935054802316</v>
       </c>
       <c r="D7" t="n">
-        <v>332.3157705199953</v>
+        <v>220.1768660678959</v>
       </c>
       <c r="E7" t="n">
-        <v>184.4026769376022</v>
+        <v>205.7962270549461</v>
       </c>
       <c r="F7" t="n">
-        <v>37.51272943969185</v>
+        <v>205.7962270549461</v>
       </c>
       <c r="G7" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="H7" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="I7" t="n">
-        <v>37.51272943969185</v>
+        <v>37.54932867046977</v>
       </c>
       <c r="J7" t="n">
-        <v>44.88594547809212</v>
+        <v>44.97225155316373</v>
       </c>
       <c r="K7" t="n">
-        <v>186.8392411052402</v>
+        <v>187.0072307948255</v>
       </c>
       <c r="L7" t="n">
-        <v>424.0170213018158</v>
+        <v>424.2895378952945</v>
       </c>
       <c r="M7" t="n">
-        <v>684.4768588349672</v>
+        <v>684.8595843928481</v>
       </c>
       <c r="N7" t="n">
-        <v>944.1781600097949</v>
+        <v>944.6684740092337</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.038050003899</v>
+        <v>1168.62773934281</v>
       </c>
       <c r="P7" t="n">
-        <v>1336.068176656003</v>
+        <v>1336.742898765454</v>
       </c>
       <c r="Q7" t="n">
-        <v>1368.968446508014</v>
+        <v>1369.702040900195</v>
       </c>
       <c r="R7" t="n">
-        <v>1368.968446508014</v>
+        <v>1255.408588557906</v>
       </c>
       <c r="S7" t="n">
-        <v>1368.968446508014</v>
+        <v>1255.408588557906</v>
       </c>
       <c r="T7" t="n">
-        <v>1368.968446508014</v>
+        <v>1255.408588557906</v>
       </c>
       <c r="U7" t="n">
-        <v>1368.968446508014</v>
+        <v>1255.408588557906</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.283958302127</v>
+        <v>1000.724100352019</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8667882651664</v>
+        <v>1000.724100352019</v>
       </c>
       <c r="X7" t="n">
-        <v>596.8772373671491</v>
+        <v>772.7345494540015</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.0846582236189</v>
+        <v>551.9419703104713</v>
       </c>
     </row>
     <row r="8">
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,13 +4829,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
         <v>1644.250531453059</v>
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844846</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159563</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751764</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>854.559926646036</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>854.559926646036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.126367889647</v>
+        <v>2310.62286924967</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1941.660352309258</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>1583.394653702508</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>1197.606401104264</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950447</v>
+        <v>786.6204963146561</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5110662246918</v>
+        <v>372.1256884213069</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246918</v>
+        <v>80.4578668422339</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>80.4578668422339</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>317.3880320746707</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>723.2234501947028</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1263.599934653013</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1896.542330458664</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2544.340204328185</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3142.702105990707</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3618.889144608854</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882239</v>
+        <v>3928.313032718595</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>4022.893342111695</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.765696676221</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.75120075037</v>
+        <v>3722.316578060831</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382978</v>
+        <v>3468.8323127156</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039407</v>
+        <v>3426.996614756676</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769293</v>
+        <v>3074.227959486561</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.86553992958</v>
+        <v>2700.762201225481</v>
       </c>
       <c r="Y11" t="n">
-        <v>2034.726207953769</v>
+        <v>2310.62286924967</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.8240751972743</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>80.4578668422339</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>197.7334562039206</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376502</v>
+        <v>197.7334562039206</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>630.2027971699457</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>1154.230987988557</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1706.537290639336</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2189.569860571537</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313.3674120937913</v>
+        <v>770.3325332988842</v>
       </c>
       <c r="C13" t="n">
-        <v>313.3674120937912</v>
+        <v>610.9114330450471</v>
       </c>
       <c r="D13" t="n">
-        <v>313.3674120937912</v>
+        <v>460.7947936327114</v>
       </c>
       <c r="E13" t="n">
-        <v>313.3674120937912</v>
+        <v>460.7947936327114</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937912</v>
+        <v>313.904846134801</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937912</v>
+        <v>313.904846134801</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>169.9913866528134</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>80.4578668422339</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>143.53505662839</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>377.0270927076815</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888916</v>
+        <v>731.342944997712</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1115.308455583783</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1495.578740955084</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1830.803602510215</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2094.125701226116</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="S13" t="n">
-        <v>1997.804429218092</v>
+        <v>2005.830897168752</v>
       </c>
       <c r="T13" t="n">
-        <v>1776.990371768137</v>
+        <v>1785.171389950008</v>
       </c>
       <c r="U13" t="n">
-        <v>1487.899665208426</v>
+        <v>1496.082656371972</v>
       </c>
       <c r="V13" t="n">
-        <v>1233.215177002539</v>
+        <v>1241.398168166085</v>
       </c>
       <c r="W13" t="n">
-        <v>943.7980069655785</v>
+        <v>951.9809981291239</v>
       </c>
       <c r="X13" t="n">
-        <v>715.8084560675611</v>
+        <v>951.9809981291239</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.015876924031</v>
+        <v>951.9809981291239</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364392</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5279,22 +5279,22 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>832.4779592300542</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1454.57392262939</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.450397629585</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2421.03391605566</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>661.7095259921575</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>492.7733430642506</v>
+        <v>846.8182155057106</v>
       </c>
       <c r="D16" t="n">
-        <v>342.6567036519149</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6567036519149</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519149</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W16" t="n">
-        <v>1292.140120863945</v>
+        <v>1379.174073099748</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.150569965927</v>
+        <v>1379.174073099748</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.3579908223973</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>964.3593790373423</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835333</v>
+        <v>795.4231961094354</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>645.3065566970997</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>497.3934631147065</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>350.5035156167962</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>964.3593790373423</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>964.3593790373423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965433</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358683</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760439</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.2220959708311</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263196</v>
+        <v>868.8644509357071</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984127</v>
+        <v>699.9282680078002</v>
       </c>
       <c r="D22" t="n">
-        <v>530.331535286077</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="E22" t="n">
-        <v>382.418441703684</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.396704050342</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740954</v>
+        <v>2043.396704050342</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535067</v>
+        <v>1788.712215844455</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1499.295045807494</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.825401600089</v>
+        <v>1271.305494909477</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456559</v>
+        <v>1050.512915765947</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>707.6725264685178</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121658</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797758</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>889.3209912987576</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6683,25 +6683,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.550723916711</v>
+        <v>849.3843576263196</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>680.4481746984127</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>530.331535286077</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888044</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.724593490894</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6868,10 +6868,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1456.750023995219</v>
+        <v>1769.232122535067</v>
       </c>
       <c r="W34" t="n">
-        <v>1167.332853958259</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>939.3433030602412</v>
+        <v>1251.825401600089</v>
       </c>
       <c r="Y34" t="n">
-        <v>718.550723916711</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,7 +7105,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279802</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835334</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711975</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908941</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,13 +7336,13 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279802</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1963.123159128058</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.438670922171</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.02150088521</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.6725264685176</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406107</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282751</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458821</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377265</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442287</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987573</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7649,34 +7649,34 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.6725264685181</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406112</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580258</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235162</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258103</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602301</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396414</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359454</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614362</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317906</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
-        <v>144.4363991805481</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.5660510377764</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.91370857612236</v>
+        <v>15.81425792047551</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>115.5127826587199</v>
+        <v>116.0171422436662</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.08469510735196</v>
+        <v>40.03210144397056</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883062555</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>19.53007201344991</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.3349174907999</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>13.7633328571535</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>9.419931847328399</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628551</v>
       </c>
       <c r="S13" t="n">
-        <v>108.407330309457</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613728907</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>165.9740306103828</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.63115561456306</v>
       </c>
     </row>
     <row r="17">
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>132.6856459467211</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>17.69120316499314</v>
       </c>
       <c r="U22" t="n">
-        <v>265.8002026072642</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194052</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3794168272095</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194418</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>112.2233770574213</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>22.818171762936</v>
+        <v>84.77391660561943</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>271.989932220618</v>
+        <v>79.42624789262561</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890402</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.608580030378</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951742</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.5054897610429</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>946551.1284440624</v>
+        <v>946557.309675649</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>950162.9988299457</v>
+        <v>950162.9988299458</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842606.8485974387</v>
+        <v>852657.2117143821</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921458.691881528</v>
+        <v>916433.5103230561</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921458.691881528</v>
+        <v>916433.5103230559</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.6918815284</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921458.6918815278</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.045203982</v>
+        <v>466243.5802689506</v>
       </c>
       <c r="F2" t="n">
         <v>501674.8572737694</v>
       </c>
       <c r="G2" t="n">
+        <v>501674.8572737694</v>
+      </c>
+      <c r="H2" t="n">
+        <v>501674.8572737692</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>311475.5486359363</v>
+        <v>311981.9644455516</v>
       </c>
       <c r="D3" t="n">
-        <v>176113.3450239636</v>
+        <v>175633.9610741926</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357062</v>
+        <v>348407.0423979632</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051383</v>
+        <v>143852.0300046405</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854472</v>
       </c>
       <c r="K3" t="n">
-        <v>72419.11656261118</v>
+        <v>72536.85994794675</v>
       </c>
       <c r="L3" t="n">
-        <v>43449.5781582678</v>
+        <v>43333.79145930766</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456812</v>
+        <v>90993.97560824265</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848926</v>
+        <v>37822.10612283013</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195348.4800747343</v>
+        <v>195213.9682058039</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
-        <v>14117.63111954901</v>
+        <v>14130.22632423</v>
       </c>
       <c r="F4" t="n">
         <v>14210.2194556297</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.21945562969</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26457,7 +26457,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79374.38120560539</v>
+        <v>79410.78191608998</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>88006.19635166985</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413360.7734304883</v>
+        <v>-413360.7734304885</v>
       </c>
       <c r="C6" t="n">
-        <v>-73047.30375109873</v>
+        <v>-73455.60840226807</v>
       </c>
       <c r="D6" t="n">
-        <v>97740.62128831114</v>
+        <v>98220.00523808194</v>
       </c>
       <c r="E6" t="n">
-        <v>35261.57288657967</v>
+        <v>15512.48509150257</v>
       </c>
       <c r="F6" t="n">
-        <v>220801.162199163</v>
+        <v>243424.5743040952</v>
       </c>
       <c r="G6" t="n">
-        <v>377960.1066699128</v>
+        <v>387276.6043087357</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054915</v>
+        <v>387276.6043087356</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054915</v>
+        <v>378273.6915226073</v>
       </c>
       <c r="J6" t="n">
-        <v>340062.398176947</v>
+        <v>340027.6602515111</v>
       </c>
       <c r="K6" t="n">
-        <v>316708.2263428803</v>
+        <v>316555.745032109</v>
       </c>
       <c r="L6" t="n">
-        <v>345677.7647472238</v>
+        <v>345758.8135207482</v>
       </c>
       <c r="M6" t="n">
-        <v>304197.7485609234</v>
+        <v>298098.629371813</v>
       </c>
       <c r="N6" t="n">
-        <v>345344.9363470023</v>
+        <v>351270.4988572256</v>
       </c>
       <c r="O6" t="n">
-        <v>386104.0449282668</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054914</v>
+        <v>389092.604980056</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6929739192474</v>
+        <v>791.0867947950901</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>468.909117996148</v>
+        <v>469.3666083808721</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086474</v>
+        <v>1005.723335527924</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.2230330063427</v>
+        <v>242.6168538821853</v>
       </c>
       <c r="D3" t="n">
-        <v>143.371918198292</v>
+        <v>142.978097322449</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770166</v>
+        <v>297.9634359362265</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>126.0127206626203</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>9.93445162528792</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>281.383530829828</v>
+        <v>281.841021214552</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6757141038907</v>
+        <v>171.2182237191666</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086087</v>
+        <v>365.138503427885</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>154.4219547980832</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>281.383530829828</v>
+        <v>281.8410212145517</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038907</v>
+        <v>171.2182237191669</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086087</v>
+        <v>365.138503427885</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>154.4219547980832</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>281.383530829828</v>
+        <v>281.841021214552</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038907</v>
+        <v>171.2182237191666</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086087</v>
+        <v>365.138503427885</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>154.4219547980832</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>183.0604670455784</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27430,7 +27430,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>215.407609656769</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27512,19 +27512,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>91.25806012476366</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120972</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>50.31302348784553</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>113.74194662711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.4419245435506</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>32.21987943767965</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.9212969131521</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.93039860750424</v>
+        <v>87.86936230874674</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5862358447987</v>
+        <v>136.5501586861725</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1812425557635</v>
+        <v>209.1743120999484</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0913596900936</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.9707121200499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>63.20762545168907</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6419342461042</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.80173553707392</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.81143153875981</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3061554456076</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>105.284274191625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>132.1971300237489</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.565139569424</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.550160564931</v>
+        <v>149.5438465187576</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5715838170145</v>
+        <v>112.5502271045999</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1824495902089</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1680991680674</v>
+        <v>199.155722862838</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8533648751332</v>
+        <v>221.8503305175652</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241256277089</v>
+        <v>286.2412175406094</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>344.6919180062808</v>
+        <v>344.6919180062812</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.3258519193758</v>
+        <v>97.95611157329989</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,16 +28068,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.435439870222425e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.232261547096357e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>7.712423664531741e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.018307967289094e-12</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.178665221785917</v>
+        <v>3.180248421286792</v>
       </c>
       <c r="H5" t="n">
-        <v>32.55350520261503</v>
+        <v>32.56971914450337</v>
       </c>
       <c r="I5" t="n">
-        <v>122.5454909629017</v>
+        <v>122.6065272616592</v>
       </c>
       <c r="J5" t="n">
-        <v>269.7852373675527</v>
+        <v>269.9196094461901</v>
       </c>
       <c r="K5" t="n">
-        <v>404.3381362057506</v>
+        <v>404.5395251192601</v>
       </c>
       <c r="L5" t="n">
-        <v>501.6172119869815</v>
+        <v>501.8670527422158</v>
       </c>
       <c r="M5" t="n">
-        <v>558.1457996249168</v>
+        <v>558.4237956042748</v>
       </c>
       <c r="N5" t="n">
-        <v>567.177182186316</v>
+        <v>567.459676431256</v>
       </c>
       <c r="O5" t="n">
-        <v>535.5693298871823</v>
+        <v>535.8360811920854</v>
       </c>
       <c r="P5" t="n">
-        <v>457.0960322243424</v>
+        <v>457.3236982915677</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.2600839691341</v>
+        <v>343.4310517042343</v>
       </c>
       <c r="R5" t="n">
-        <v>199.6718292380098</v>
+        <v>199.7712798936566</v>
       </c>
       <c r="S5" t="n">
-        <v>72.43383374144665</v>
+        <v>72.46991090007285</v>
       </c>
       <c r="T5" t="n">
-        <v>13.91460700836786</v>
+        <v>13.92153746418294</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2542932177428733</v>
+        <v>0.2544198737029433</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.70073583069423</v>
+        <v>1.70158291710642</v>
       </c>
       <c r="H6" t="n">
-        <v>16.4255276280206</v>
+        <v>16.43370869942254</v>
       </c>
       <c r="I6" t="n">
-        <v>58.55603627609521</v>
+        <v>58.58520131265526</v>
       </c>
       <c r="J6" t="n">
-        <v>160.6822391622124</v>
+        <v>160.7622702517079</v>
       </c>
       <c r="K6" t="n">
-        <v>274.6315398187258</v>
+        <v>274.7683256978381</v>
       </c>
       <c r="L6" t="n">
-        <v>369.275996923324</v>
+        <v>369.4599224182164</v>
       </c>
       <c r="M6" t="n">
-        <v>430.9276707859898</v>
+        <v>431.1423031633241</v>
       </c>
       <c r="N6" t="n">
-        <v>442.3330439663911</v>
+        <v>442.5533570240948</v>
       </c>
       <c r="O6" t="n">
-        <v>404.6483184546926</v>
+        <v>404.849861860842</v>
       </c>
       <c r="P6" t="n">
-        <v>324.7659499858132</v>
+        <v>324.9277063376286</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.0974369145828</v>
+        <v>217.2055667520406</v>
       </c>
       <c r="R6" t="n">
-        <v>105.594808856612</v>
+        <v>105.6474025199934</v>
       </c>
       <c r="S6" t="n">
-        <v>31.59042211837746</v>
+        <v>31.60615637695476</v>
       </c>
       <c r="T6" t="n">
-        <v>6.855158896526302</v>
+        <v>6.858573249214033</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111890515177252</v>
+        <v>0.1119462445464751</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.425839789034708</v>
+        <v>1.426549957827211</v>
       </c>
       <c r="H7" t="n">
-        <v>12.6770119425086</v>
+        <v>12.68332598868194</v>
       </c>
       <c r="I7" t="n">
-        <v>42.87889111024379</v>
+        <v>42.90024782265834</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8068730847539</v>
+        <v>100.8570820183838</v>
       </c>
       <c r="K7" t="n">
-        <v>165.6566591260324</v>
+        <v>165.7391678275615</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9834900897602</v>
+        <v>212.0890728209656</v>
       </c>
       <c r="M7" t="n">
-        <v>223.5068680211406</v>
+        <v>223.6181902074055</v>
       </c>
       <c r="N7" t="n">
-        <v>218.1923742620115</v>
+        <v>218.3010494555043</v>
       </c>
       <c r="O7" t="n">
-        <v>201.5359730901059</v>
+        <v>201.6363522208863</v>
       </c>
       <c r="P7" t="n">
-        <v>172.4488413937977</v>
+        <v>172.534733081211</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.3946390618063</v>
+        <v>119.4541060140586</v>
       </c>
       <c r="R7" t="n">
-        <v>64.11094178696059</v>
+        <v>64.14287355830351</v>
       </c>
       <c r="S7" t="n">
-        <v>24.84849886890486</v>
+        <v>24.86087517413421</v>
       </c>
       <c r="T7" t="n">
-        <v>6.092224553148297</v>
+        <v>6.095258910716265</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07777307940189326</v>
+        <v>0.07781181588148435</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.952877700718652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>50.72365875248491</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>190.945817556956</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>420.3693037513701</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>630.0246168227907</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>781.6012477561593</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>869.6819865663145</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>883.7543503334815</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>834.5041726969604</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>712.2300044604685</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>534.8550718034817</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>311.1212038677683</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>112.8637006051264</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.68122213489591</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3962302160574921</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.650023196191118</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.5936450790037</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>91.23983372851001</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>245.2978179410977</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735502</v>
+        <v>575.3920979273743</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>671.4554387893021</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>689.22686627604</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>630.5079312446474</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>506.0382013849514</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>49.22301857837447</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605104</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1743436313283631</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.221690427637938</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.75284762027186</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>66.81229031478455</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>157.0735132340022</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>258.1200333201167</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>330.304775032644</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>348.2600731250996</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>339.9792269857221</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>314.0258433537697</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>268.7033586299556</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>186.0362775361186</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>99.89528050088397</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.7180049980175</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.492677281725731</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1211831142347967</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32078,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.0542121815563</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>145.7767564879486</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>28.45844197068258</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.73933284086638</v>
+        <v>88.87370491950384</v>
       </c>
       <c r="K5" t="n">
-        <v>184.2482851607701</v>
+        <v>184.4496740742795</v>
       </c>
       <c r="L5" t="n">
-        <v>265.8507970169942</v>
+        <v>266.1006377722286</v>
       </c>
       <c r="M5" t="n">
-        <v>327.7995663976441</v>
+        <v>328.0775623770021</v>
       </c>
       <c r="N5" t="n">
-        <v>337.7641185897251</v>
+        <v>338.046612834665</v>
       </c>
       <c r="O5" t="n">
-        <v>305.4711184654956</v>
+        <v>305.7378697703987</v>
       </c>
       <c r="P5" t="n">
-        <v>225.8630364690729</v>
+        <v>226.0907025362981</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.9543940946847</v>
+        <v>121.1253618297848</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>149.3573951542656</v>
+        <v>149.9417858287075</v>
       </c>
       <c r="K6" t="n">
-        <v>136.7901008443668</v>
+        <v>136.9268867234791</v>
       </c>
       <c r="L6" t="n">
-        <v>230.7216171434499</v>
+        <v>230.9055426383422</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7936368639715</v>
+        <v>289.0082692413058</v>
       </c>
       <c r="N6" t="n">
-        <v>310.9913318830578</v>
+        <v>311.2116449407615</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0520740102481</v>
+        <v>262.2536174163976</v>
       </c>
       <c r="P6" t="n">
-        <v>190.7915425714829</v>
+        <v>190.9532989232984</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.1929505644104</v>
+        <v>287.3010804018682</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.447692968081085</v>
+        <v>7.497901901711074</v>
       </c>
       <c r="K7" t="n">
-        <v>143.3871673001496</v>
+        <v>143.4696760016786</v>
       </c>
       <c r="L7" t="n">
-        <v>239.5735153500763</v>
+        <v>239.6790980812818</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0907449829812</v>
+        <v>263.2020671692461</v>
       </c>
       <c r="N7" t="n">
-        <v>262.3245466412401</v>
+        <v>262.4332218347329</v>
       </c>
       <c r="O7" t="n">
-        <v>226.1211010041456</v>
+        <v>226.221480134926</v>
       </c>
       <c r="P7" t="n">
-        <v>169.7274006586912</v>
+        <v>169.8132923461045</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.23259581011196</v>
+        <v>33.29206276236421</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317911</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>239.3233992246838</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>409.9347657778101</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>545.834832786172</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>639.3357533390418</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>654.3412867368907</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>604.4059612752736</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>480.997008705199</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>312.5493819290322</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>95.53566605363613</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>118.4601912744311</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693675998</v>
+        <v>436.8377181475001</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>529.3214048672837</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>557.8851541927068</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>487.9116868002029</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>372.0637939706212</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>63.7143331173294</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>235.8505414942339</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>357.8948002929601</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>387.8439500869402</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>384.1113993649507</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>338.6109712678094</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>265.9819178948491</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>99.87423428442422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.0724380955348</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191294</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
